--- a/Memo.xlsx
+++ b/Memo.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnguyenquang\Work\Learning\angular\angular-ngrx-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76436EF-9EB7-433F-BC03-3B00358DA9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695214E2-C4C0-4ED4-AC8B-3E15419E195F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="1" xr2:uid="{9A0F76B2-F3B2-4C86-A34A-EEC0CA5C92E0}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{9A0F76B2-F3B2-4C86-A34A-EEC0CA5C92E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folder structure" sheetId="1" r:id="rId1"/>
-    <sheet name="store" sheetId="4" r:id="rId2"/>
-    <sheet name="Angular sesstion state + ngrx" sheetId="2" r:id="rId3"/>
-    <sheet name="keep state when refresh" sheetId="3" r:id="rId4"/>
+    <sheet name="ngrx overview" sheetId="5" r:id="rId1"/>
+    <sheet name="Folder structure" sheetId="1" r:id="rId2"/>
+    <sheet name="store" sheetId="4" r:id="rId3"/>
+    <sheet name="Angular sesstion state + ngrx" sheetId="2" r:id="rId4"/>
+    <sheet name="keep state when refresh" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>shared</t>
   </si>
@@ -114,13 +115,70 @@
   </si>
   <si>
     <t>https://nils-mehlhorn.de/posts/ngrx-keep-state-refresh</t>
+  </si>
+  <si>
+    <t>token …</t>
+  </si>
+  <si>
+    <t>user info …</t>
+  </si>
+  <si>
+    <t>theme …</t>
+  </si>
+  <si>
+    <t>session info</t>
+  </si>
+  <si>
+    <t>AppState (Root)</t>
+  </si>
+  <si>
+    <t>pet-state(feature)  - should be set lazy load</t>
+  </si>
+  <si>
+    <t>PetList Component</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>dispatch(LOAD_PETS)</t>
+  </si>
+  <si>
+    <t>Reducer</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>ON:</t>
+  </si>
+  <si>
+    <t>LOAD_SUCCESS</t>
+  </si>
+  <si>
+    <t>make a new petstate with incoming payload data</t>
+  </si>
+  <si>
+    <t>LOAD_FAILURE</t>
+  </si>
+  <si>
+    <t>make a new petstate with pet list is empty</t>
+  </si>
+  <si>
+    <t>subcribe pets in store</t>
+  </si>
+  <si>
+    <t>petList$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,16 +210,48 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -169,12 +259,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -183,6 +353,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -202,6 +390,976 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99363</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="NgRx State Management Lifecycle Diagram">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4B3C4A-70EC-41B3-905B-7157DFE068E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="180109"/>
+          <a:ext cx="9852963" cy="5458691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7860F72B-38CF-4182-9EF2-26AB3D135B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545080" y="6919856"/>
+          <a:ext cx="2690308" cy="90544"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A007C8E2-E3E7-436D-881F-99432ABA762D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="6797040"/>
+          <a:ext cx="1409700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LOAD_PETS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CECEDF-1A96-4AC4-9F92-7DC676945A95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5271247" y="6863379"/>
+          <a:ext cx="1792941" cy="3195021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ofType(LOAD_PETS)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Call</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> API OK:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Dispatch(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>LOAD_SUCCESS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>payload: { pets }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Call</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> API NG:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dispatch(</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LOAD_FAILURE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>payload: {  }</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>155089</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>385482</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92D79DE-2F3E-437F-A4EE-B9878C2395C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8079889" y="7401261"/>
+          <a:ext cx="1449593" cy="326316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Call</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> API: getListPets()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>155089</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34066</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A0C617-7E71-4A61-9ED2-B985BB1BACC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7082118" y="7234518"/>
+          <a:ext cx="997771" cy="329901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164053</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>59167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>394446</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E33180-CEA4-4EDD-BBB4-A459FCD83C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8088853" y="7410226"/>
+          <a:ext cx="1449593" cy="326316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Call</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> API: getListPets()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>367553</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>43031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164053</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE41EFDD-117C-453F-BCBF-D492CDA79B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7073153" y="7573384"/>
+          <a:ext cx="1015700" cy="521745"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>336817</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>578864</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>124866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 磁気ディスク 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B647C5C-AF52-41C3-92CA-8D2857CB3216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14357617" y="8763000"/>
+          <a:ext cx="851647" cy="984837"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>store</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>336817</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2562</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34C52B7-7E0C-4195-9902-20F32A071775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="8338457"/>
+          <a:ext cx="1022617" cy="916962"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>336817</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2562</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7CCEBD-DD74-4571-8FB7-CB250DF661F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13498286" y="9209314"/>
+          <a:ext cx="859331" cy="46105"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>124866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>153041</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: 曲線 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04FC043-EBC1-45A2-B7A1-82FBC64755C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7971225" y="4410955"/>
+          <a:ext cx="1475334" cy="12149098"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FF5221-600D-4EF1-9C64-96944FB98C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="10896601"/>
+          <a:ext cx="1643743" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Notify</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> a change event</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -590,11 +1748,918 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E010DF7-F8D6-4C99-A8A0-F4E285E36ED3}">
+  <dimension ref="B34:Z66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="34" spans="2:26" ht="15" thickBot="1"/>
+    <row r="35" spans="2:26">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="2:26">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="12"/>
+    </row>
+    <row r="37" spans="2:26">
+      <c r="B37" s="10"/>
+      <c r="C37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="12"/>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="12"/>
+    </row>
+    <row r="39" spans="2:26">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="12"/>
+    </row>
+    <row r="40" spans="2:26">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
+    </row>
+    <row r="41" spans="2:26">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="12"/>
+    </row>
+    <row r="42" spans="2:26">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="12"/>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="12"/>
+    </row>
+    <row r="44" spans="2:26">
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="12"/>
+    </row>
+    <row r="45" spans="2:26">
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="12"/>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="12"/>
+    </row>
+    <row r="47" spans="2:26">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="12"/>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="12"/>
+    </row>
+    <row r="49" spans="2:26">
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="12"/>
+    </row>
+    <row r="50" spans="2:26">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="12"/>
+    </row>
+    <row r="51" spans="2:26">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="12"/>
+    </row>
+    <row r="52" spans="2:26">
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="12"/>
+    </row>
+    <row r="53" spans="2:26">
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="12"/>
+    </row>
+    <row r="54" spans="2:26">
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="12"/>
+    </row>
+    <row r="55" spans="2:26">
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="12"/>
+    </row>
+    <row r="56" spans="2:26">
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="12"/>
+    </row>
+    <row r="57" spans="2:26">
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="12"/>
+    </row>
+    <row r="58" spans="2:26">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="12"/>
+    </row>
+    <row r="59" spans="2:26">
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="12"/>
+    </row>
+    <row r="60" spans="2:26">
+      <c r="B60" s="10"/>
+      <c r="C60" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="12"/>
+    </row>
+    <row r="61" spans="2:26">
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="12"/>
+    </row>
+    <row r="62" spans="2:26">
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="12"/>
+    </row>
+    <row r="63" spans="2:26">
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="12"/>
+    </row>
+    <row r="64" spans="2:26">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="12"/>
+    </row>
+    <row r="65" spans="2:26">
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="12"/>
+    </row>
+    <row r="66" spans="2:26" ht="15" thickBot="1">
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62AA968-7634-442F-84CF-1E712C2D98AA}">
   <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -705,25 +2770,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5660BA1-BEDD-4AFF-89E0-582C4FC7CC48}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C9A05E-9BA9-4D68-B029-39A5B8E8CF29}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -786,12 +2883,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5334A74-8657-4881-AC98-021EA95C00FC}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Memo.xlsx
+++ b/Memo.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnguyenquang\Work\Learning\angular\angular-ngrx-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695214E2-C4C0-4ED4-AC8B-3E15419E195F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18A5A2F-8327-42DB-BEEB-F3B280CC102D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{9A0F76B2-F3B2-4C86-A34A-EEC0CA5C92E0}"/>
+    <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" tabRatio="680" activeTab="1" xr2:uid="{9A0F76B2-F3B2-4C86-A34A-EEC0CA5C92E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="ngrx overview" sheetId="5" r:id="rId1"/>
-    <sheet name="Folder structure" sheetId="1" r:id="rId2"/>
-    <sheet name="store" sheetId="4" r:id="rId3"/>
-    <sheet name="Angular sesstion state + ngrx" sheetId="2" r:id="rId4"/>
-    <sheet name="keep state when refresh" sheetId="3" r:id="rId5"/>
+    <sheet name="Sharing between component" sheetId="6" r:id="rId1"/>
+    <sheet name="ngrx overview" sheetId="5" r:id="rId2"/>
+    <sheet name="Folder structure" sheetId="1" r:id="rId3"/>
+    <sheet name="store" sheetId="4" r:id="rId4"/>
+    <sheet name="Angular sesstion state + ngrx" sheetId="2" r:id="rId5"/>
+    <sheet name="keep state when refresh" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>shared</t>
   </si>
@@ -172,6 +173,42 @@
   </si>
   <si>
     <t>petList$</t>
+  </si>
+  <si>
+    <t>How to share data between angular component</t>
+  </si>
+  <si>
+    <t>Rxjs (Behavior Object … )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent-child: </t>
+  </si>
+  <si>
+    <t>@Input , @Output</t>
+  </si>
+  <si>
+    <t>Separated Component</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Framework (Flux系）</t>
+  </si>
+  <si>
+    <t>what is state</t>
+  </si>
+  <si>
+    <t>display data</t>
+  </si>
+  <si>
+    <t>selecting data</t>
+  </si>
+  <si>
+    <t>it is everything you can manage  in UI</t>
+  </si>
+  <si>
+    <t>dynamic theme (button color, button position.. )</t>
   </si>
 </sst>
 </file>
@@ -344,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -371,6 +408,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -390,6 +431,392 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D97D57-2E5D-4B30-80F7-8AD8A3E77073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693420" y="160020"/>
+          <a:ext cx="7802880" cy="2499360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4883864B-E8B1-4D24-B68F-45CF58B25505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1417320" y="434340"/>
+          <a:ext cx="1409700" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Component</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C659C3FD-D8CE-42C5-B0E1-9DCEAAE76E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3261360" y="419100"/>
+          <a:ext cx="1409700" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Component</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB8B4CD-675B-49A9-9648-0D93509767AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5326380" y="434340"/>
+          <a:ext cx="1409700" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Component</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDD800E-6D7F-40A9-9A2D-5FE3E7E6FA2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2537460" y="1303020"/>
+          <a:ext cx="1409700" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Component</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B93A36-FD82-4AE2-8194-DF6DEBF03B12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4290060" y="1272540"/>
+          <a:ext cx="1409700" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Component</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1359,7 +1786,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1748,11 +2175,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD71B26-381B-4E67-ABE6-CE7A0E47B9D1}">
+  <dimension ref="B17:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="E19" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="D21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="D22" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E010DF7-F8D6-4C99-A8A0-F4E285E36ED3}">
   <dimension ref="B34:Z66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2654,7 +3169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62AA968-7634-442F-84CF-1E712C2D98AA}">
   <dimension ref="B1:D21"/>
   <sheetViews>
@@ -2770,7 +3285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5660BA1-BEDD-4AFF-89E0-582C4FC7CC48}">
   <dimension ref="B3:D8"/>
   <sheetViews>
@@ -2816,7 +3331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C9A05E-9BA9-4D68-B029-39A5B8E8CF29}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2883,7 +3398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5334A74-8657-4881-AC98-021EA95C00FC}">
   <dimension ref="B2"/>
   <sheetViews>
